--- a/raw/1932election.xlsx
+++ b/raw/1932election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C36A50-FBA3-964E-810F-6C92E9FE8729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7EEA1E-6195-8142-BEAC-467589B9B792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="17240" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8072" uniqueCount="2684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8067" uniqueCount="2684">
   <si>
     <t>State</t>
   </si>
@@ -8522,7 +8522,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8829,8 +8829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1481" zoomScale="190" workbookViewId="0">
-      <selection activeCell="E995" sqref="E995"/>
+    <sheetView tabSelected="1" topLeftCell="A951" zoomScale="190" workbookViewId="0">
+      <selection activeCell="D970" sqref="D970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -16139,8 +16139,8 @@
       <c r="C326" t="s">
         <v>2351</v>
       </c>
-      <c r="D326" t="s">
-        <v>30</v>
+      <c r="D326">
+        <v>5</v>
       </c>
       <c r="E326" t="s">
         <v>2414</v>
@@ -16162,8 +16162,8 @@
       <c r="C327" t="s">
         <v>2351</v>
       </c>
-      <c r="D327" t="s">
-        <v>30</v>
+      <c r="D327">
+        <v>5</v>
       </c>
       <c r="E327" t="s">
         <v>510</v>
@@ -30676,8 +30676,8 @@
       <c r="C968" t="s">
         <v>2351</v>
       </c>
-      <c r="D968" t="s">
-        <v>32</v>
+      <c r="D968">
+        <v>8</v>
       </c>
       <c r="E968" t="s">
         <v>2539</v>
@@ -30699,8 +30699,8 @@
       <c r="C969" t="s">
         <v>2351</v>
       </c>
-      <c r="D969" t="s">
-        <v>32</v>
+      <c r="D969">
+        <v>8</v>
       </c>
       <c r="E969" t="s">
         <v>1549</v>
@@ -39806,8 +39806,8 @@
       <c r="C1374" t="s">
         <v>6</v>
       </c>
-      <c r="D1374" t="s">
-        <v>12</v>
+      <c r="D1374">
+        <v>2</v>
       </c>
       <c r="E1374" t="s">
         <v>2134</v>
